--- a/Excel Files/TestWorkbook.xlsx
+++ b/Excel Files/TestWorkbook.xlsx
@@ -13,6 +13,26 @@
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -349,12 +369,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Excel Files/TestWorkbook.xlsx
+++ b/Excel Files/TestWorkbook.xlsx
@@ -16,18 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
   <si>
     <t>a</t>
   </si>
   <si>
     <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
   </si>
   <si>
     <t>e</t>
@@ -369,37 +363,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Files/TestWorkbook.xlsx
+++ b/Excel Files/TestWorkbook.xlsx
@@ -16,12 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>a</t>
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
   <si>
     <t>e</t>
@@ -363,43 +369,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Files/TestWorkbook.xlsx
+++ b/Excel Files/TestWorkbook.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sayfa3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -21,9 +19,6 @@
     <t>a</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>c</t>
   </si>
   <si>
@@ -31,6 +26,9 @@
   </si>
   <si>
     <t>e</t>
+  </si>
+  <si>
+    <t>asdasd</t>
   </si>
 </sst>
 </file>
@@ -372,7 +370,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -384,49 +382,25 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Excel Files/TestWorkbook.xlsx
+++ b/Excel Files/TestWorkbook.xlsx
@@ -19,9 +19,6 @@
     <t>a</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>d</t>
   </si>
   <si>
@@ -29,6 +26,9 @@
   </si>
   <si>
     <t>asdasd</t>
+  </si>
+  <si>
+    <t>qwe</t>
   </si>
 </sst>
 </file>
@@ -370,7 +370,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -382,22 +382,22 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
